--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -591,8 +591,14 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
       <c r="C3" t="s">
         <v>25</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -617,8 +623,14 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
         <v>25</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -669,8 +681,14 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6" t="s">
         <v>25</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -695,8 +713,14 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
       <c r="C7" t="s">
         <v>25</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -721,8 +745,14 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
       <c r="C8" t="s">
         <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -514,7 +514,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
@@ -565,8 +565,14 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
       <c r="C2" t="s">
         <v>25</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -777,6 +783,12 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
@@ -794,6 +806,12 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
@@ -811,6 +829,12 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
@@ -827,6 +851,12 @@
     <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>16</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simen\Tables2\tables\Scripts\Kamper\H23\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8E77BA-247B-4540-A76C-C37A20ACBA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -88,6 +82,9 @@
     <t>Wolves of Ballstreet</t>
   </si>
   <si>
+    <t>Tihlde Pythons</t>
+  </si>
+  <si>
     <t>Week 3 Fixtures</t>
   </si>
   <si>
@@ -224,19 +221,16 @@
   </si>
   <si>
     <t>Tim og Shænko</t>
-  </si>
-  <si>
-    <t>Tihlde Pythons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,21 +294,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,7 +338,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -386,7 +372,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -421,10 +406,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -597,29 +581,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.703125" customWidth="1"/>
-    <col min="2" max="2" width="5.703125" customWidth="1"/>
-    <col min="3" max="3" width="12.703125" customWidth="1"/>
-    <col min="4" max="4" width="5.703125" customWidth="1"/>
-    <col min="5" max="5" width="22.703125" customWidth="1"/>
-    <col min="6" max="6" width="21.703125" customWidth="1"/>
-    <col min="7" max="7" width="7.703125" customWidth="1"/>
-    <col min="8" max="8" width="18.703125" customWidth="1"/>
-    <col min="9" max="9" width="19.703125" customWidth="1"/>
-    <col min="10" max="10" width="15.703125" customWidth="1"/>
-    <col min="11" max="11" width="11.703125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -662,31 +644,31 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>44813</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <v>97511224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -694,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -706,19 +688,19 @@
         <v>44813</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3">
         <v>47178566</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -726,31 +708,31 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>45179</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J4">
         <v>46960280</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -758,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -770,45 +752,51 @@
         <v>44813</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J5">
         <v>48603937</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>44813</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J6">
         <v>94082710</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -816,31 +804,31 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2">
         <v>44813</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J7">
         <v>90268033</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -848,7 +836,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -860,19 +848,19 @@
         <v>45179</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J8">
         <v>94082710</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -901,7 +889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -909,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -921,19 +909,19 @@
         <v>45185</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J11">
         <v>92963928</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -941,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -953,19 +941,19 @@
         <v>45185</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J12">
         <v>94082710</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -973,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -985,19 +973,19 @@
         <v>45185</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13">
         <v>48229637</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1005,62 +993,62 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
         <v>45185</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J14">
         <v>46857758</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2">
         <v>45186</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J15">
         <v>98430680</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1069,47 +1057,53 @@
         <v>45186</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J16">
         <v>97483583</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2">
         <v>45186</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J17">
         <v>48271194</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -1136,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1147,15 +1141,15 @@
         <v>45198</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>21</v>
@@ -1164,13 +1158,13 @@
         <v>45199</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1181,13 +1175,13 @@
         <v>45199</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1198,30 +1192,30 @@
         <v>45199</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F24" s="2">
         <v>45199</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1232,32 +1226,32 @@
         <v>45200</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" s="2">
         <v>45200</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -1284,9 +1278,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
@@ -1295,13 +1289,13 @@
         <v>45206</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1312,13 +1306,13 @@
         <v>45206</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1329,30 +1323,30 @@
         <v>45206</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F32" s="2">
         <v>45206</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1363,13 +1357,13 @@
         <v>45207</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1380,15 +1374,15 @@
         <v>45207</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -1397,15 +1391,15 @@
         <v>45207</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -1432,9 +1426,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
@@ -1443,13 +1437,13 @@
         <v>45213</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1460,15 +1454,15 @@
         <v>45213</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -1477,30 +1471,30 @@
         <v>45213</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F41" s="2">
         <v>45213</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1511,13 +1505,13 @@
         <v>45214</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1528,15 +1522,15 @@
         <v>45214</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
         <v>21</v>
@@ -1545,15 +1539,15 @@
         <v>45214</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -1580,9 +1574,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
         <v>17</v>
@@ -1591,13 +1585,13 @@
         <v>45220</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1608,30 +1602,30 @@
         <v>45220</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F49" s="2">
         <v>45220</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -1642,15 +1636,15 @@
         <v>45220</v>
       </c>
       <c r="G50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
         <v>19</v>
@@ -1659,13 +1653,13 @@
         <v>45221</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -1676,32 +1670,32 @@
         <v>45221</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F53" s="2">
         <v>45221</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -1728,9 +1722,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -1739,13 +1733,13 @@
         <v>45226</v>
       </c>
       <c r="G56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -1756,13 +1750,13 @@
         <v>45227</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -1773,49 +1767,49 @@
         <v>45227</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F59" s="2">
         <v>45227</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F60" s="2">
         <v>45228</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
         <v>20</v>
@@ -1824,30 +1818,30 @@
         <v>45228</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F62" s="2">
         <v>45228</v>
       </c>
       <c r="G62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -1858,15 +1852,15 @@
         <v>45228</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -1893,7 +1887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -1904,13 +1898,13 @@
         <v>45231</v>
       </c>
       <c r="G66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H66" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -1921,30 +1915,30 @@
         <v>45231</v>
       </c>
       <c r="G67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H67" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F68" s="2">
         <v>45231</v>
       </c>
       <c r="G68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -1955,47 +1949,47 @@
         <v>45231</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F70" s="2">
         <v>45233</v>
       </c>
       <c r="G70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F71" s="2">
         <v>45233</v>
       </c>
       <c r="G71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2006,13 +2000,13 @@
         <v>45234</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2023,13 +2017,13 @@
         <v>45234</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -2040,13 +2034,13 @@
         <v>45234</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -2057,32 +2051,32 @@
         <v>45234</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F76" s="2">
         <v>45235</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H76" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E77" t="s">
         <v>13</v>
@@ -2091,32 +2085,32 @@
         <v>45235</v>
       </c>
       <c r="G77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F78" s="2">
         <v>45235</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H78" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -2143,9 +2137,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E81" t="s">
         <v>17</v>
@@ -2154,13 +2148,13 @@
         <v>45237</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -2171,13 +2165,13 @@
         <v>45240</v>
       </c>
       <c r="G82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H82" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -2188,30 +2182,30 @@
         <v>45241</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H83" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F84" s="2">
         <v>45241</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -2222,30 +2216,30 @@
         <v>45241</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H85" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F86" s="2">
         <v>45241</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -2256,30 +2250,30 @@
         <v>45242</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F88" s="2">
         <v>45242</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H88" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -2290,15 +2284,15 @@
         <v>45242</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H89" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -2325,7 +2319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -2336,15 +2330,15 @@
         <v>45245</v>
       </c>
       <c r="G92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H92" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -2353,15 +2347,15 @@
         <v>45245</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
@@ -2370,13 +2364,13 @@
         <v>45246</v>
       </c>
       <c r="G94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -2387,32 +2381,32 @@
         <v>45246</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F96" s="2">
         <v>45247</v>
       </c>
       <c r="G96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H96" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -2421,15 +2415,15 @@
         <v>45248</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H97" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E98" t="s">
         <v>20</v>
@@ -2438,13 +2432,13 @@
         <v>45248</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H98" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -2455,30 +2449,30 @@
         <v>45248</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H99" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F100" s="2">
         <v>45248</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H100" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -2489,15 +2483,15 @@
         <v>45249</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E102" t="s">
         <v>19</v>
@@ -2506,13 +2500,13 @@
         <v>45249</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -2523,15 +2517,15 @@
         <v>45249</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H103" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
         <v>1</v>
@@ -2558,41 +2552,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>20</v>
       </c>
       <c r="E106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F106" s="2">
         <v>45250</v>
       </c>
       <c r="G106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H106" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F107" s="2">
         <v>45250</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -2603,15 +2597,15 @@
         <v>45251</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H108" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E109" t="s">
         <v>19</v>
@@ -2620,13 +2614,13 @@
         <v>45252</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H109" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -2637,15 +2631,15 @@
         <v>45253</v>
       </c>
       <c r="G110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H110" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
@@ -2654,27 +2648,27 @@
         <v>45253</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>17</v>
       </c>
       <c r="E112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F112" s="2">
         <v>45254</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -1021,8 +1021,14 @@
       <c r="A15" t="s">
         <v>21</v>
       </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
       <c r="C15" t="s">
         <v>36</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="68">
   <si>
     <t>Week 1 Fixtures</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Week 7 Fixtures</t>
-  </si>
-  <si>
-    <t>Caf</t>
   </si>
   <si>
     <t>Week 8 Fixtures</t>
@@ -644,7 +641,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -656,13 +653,13 @@
         <v>44813</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2">
         <v>97511224</v>
@@ -676,7 +673,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -688,13 +685,13 @@
         <v>44813</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3">
         <v>47178566</v>
@@ -708,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -720,13 +717,13 @@
         <v>45179</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4">
         <v>46960280</v>
@@ -740,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -752,13 +749,13 @@
         <v>44813</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J5">
         <v>48603937</v>
@@ -772,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -784,13 +781,13 @@
         <v>44813</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6">
         <v>94082710</v>
@@ -804,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -816,13 +813,13 @@
         <v>44813</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7">
         <v>90268033</v>
@@ -836,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -848,13 +845,13 @@
         <v>45179</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J8">
         <v>94082710</v>
@@ -897,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -909,13 +906,13 @@
         <v>45185</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11">
         <v>92963928</v>
@@ -929,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -941,13 +938,13 @@
         <v>45185</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12">
         <v>94082710</v>
@@ -961,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -973,13 +970,13 @@
         <v>45185</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13">
         <v>48229637</v>
@@ -993,7 +990,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1005,13 +1002,13 @@
         <v>45185</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14">
         <v>46857758</v>
@@ -1025,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1037,13 +1034,13 @@
         <v>45186</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15">
         <v>98430680</v>
@@ -1054,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1063,13 +1060,13 @@
         <v>45186</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16">
         <v>97483583</v>
@@ -1083,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1095,13 +1092,13 @@
         <v>45186</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17">
         <v>48271194</v>
@@ -1147,10 +1144,10 @@
         <v>45198</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1164,10 +1161,10 @@
         <v>45199</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1181,10 +1178,10 @@
         <v>45199</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1198,10 +1195,10 @@
         <v>45199</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1215,10 +1212,10 @@
         <v>45199</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1232,10 +1229,10 @@
         <v>45200</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1249,10 +1246,10 @@
         <v>45200</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1295,10 +1292,10 @@
         <v>45206</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1312,10 +1309,10 @@
         <v>45206</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1329,10 +1326,10 @@
         <v>45206</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1346,10 +1343,10 @@
         <v>45206</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1363,10 +1360,10 @@
         <v>45207</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1380,10 +1377,10 @@
         <v>45207</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1397,10 +1394,10 @@
         <v>45207</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1443,10 +1440,10 @@
         <v>45213</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1460,10 +1457,10 @@
         <v>45213</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1477,10 +1474,10 @@
         <v>45213</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1494,10 +1491,10 @@
         <v>45213</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1511,10 +1508,10 @@
         <v>45214</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1528,10 +1525,10 @@
         <v>45214</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1545,10 +1542,10 @@
         <v>45214</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1591,10 +1588,10 @@
         <v>45220</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1608,10 +1605,10 @@
         <v>45220</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1625,10 +1622,10 @@
         <v>45220</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1642,10 +1639,10 @@
         <v>45220</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1659,10 +1656,10 @@
         <v>45221</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1676,10 +1673,10 @@
         <v>45221</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1693,10 +1690,10 @@
         <v>45221</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1730,7 +1727,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -1739,10 +1736,10 @@
         <v>45226</v>
       </c>
       <c r="G56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1756,10 +1753,10 @@
         <v>45227</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1773,10 +1770,10 @@
         <v>45227</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1790,10 +1787,10 @@
         <v>45227</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1807,10 +1804,10 @@
         <v>45228</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1824,10 +1821,10 @@
         <v>45228</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1841,10 +1838,10 @@
         <v>45228</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1858,15 +1855,15 @@
         <v>45228</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -1904,10 +1901,10 @@
         <v>45231</v>
       </c>
       <c r="G66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1921,10 +1918,10 @@
         <v>45231</v>
       </c>
       <c r="G67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1938,10 +1935,10 @@
         <v>45231</v>
       </c>
       <c r="G68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1955,10 +1952,10 @@
         <v>45231</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1972,10 +1969,10 @@
         <v>45233</v>
       </c>
       <c r="G70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1989,10 +1986,10 @@
         <v>45233</v>
       </c>
       <c r="G71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2006,10 +2003,10 @@
         <v>45234</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2023,10 +2020,10 @@
         <v>45234</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2040,10 +2037,10 @@
         <v>45234</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2057,10 +2054,10 @@
         <v>45234</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2074,10 +2071,10 @@
         <v>45235</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2091,10 +2088,10 @@
         <v>45235</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2105,18 +2102,18 @@
         <v>25</v>
       </c>
       <c r="F78" s="2">
-        <v>45235</v>
+        <v>45224</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H78" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
         <v>1</v>
@@ -2154,10 +2151,10 @@
         <v>45237</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2171,10 +2168,10 @@
         <v>45240</v>
       </c>
       <c r="G82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2188,10 +2185,10 @@
         <v>45241</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2205,10 +2202,10 @@
         <v>45241</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2222,10 +2219,10 @@
         <v>45241</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2239,10 +2236,10 @@
         <v>45241</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2256,10 +2253,10 @@
         <v>45242</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2273,10 +2270,10 @@
         <v>45242</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2290,15 +2287,15 @@
         <v>45242</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -2336,10 +2333,10 @@
         <v>45245</v>
       </c>
       <c r="G92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2353,10 +2350,10 @@
         <v>45245</v>
       </c>
       <c r="G93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2370,10 +2367,10 @@
         <v>45246</v>
       </c>
       <c r="G94" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2387,10 +2384,10 @@
         <v>45246</v>
       </c>
       <c r="G95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2398,16 +2395,16 @@
         <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F96" s="2">
         <v>45247</v>
       </c>
       <c r="G96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -2421,10 +2418,10 @@
         <v>45248</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -2438,10 +2435,10 @@
         <v>45248</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -2455,10 +2452,10 @@
         <v>45248</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -2472,10 +2469,10 @@
         <v>45248</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -2489,10 +2486,10 @@
         <v>45249</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -2506,10 +2503,10 @@
         <v>45249</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -2523,15 +2520,15 @@
         <v>45249</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B105" t="s">
         <v>1</v>
@@ -2569,10 +2566,10 @@
         <v>45250</v>
       </c>
       <c r="G106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -2586,10 +2583,10 @@
         <v>45250</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -2603,15 +2600,15 @@
         <v>45251</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H108" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E109" t="s">
         <v>19</v>
@@ -2620,10 +2617,10 @@
         <v>45252</v>
       </c>
       <c r="G109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -2637,10 +2634,10 @@
         <v>45253</v>
       </c>
       <c r="G110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -2654,10 +2651,10 @@
         <v>45253</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -2671,10 +2668,10 @@
         <v>45254</v>
       </c>
       <c r="G112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -1050,8 +1050,14 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
       <c r="C16" t="s">
         <v>35</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -1143,6 +1143,12 @@
       <c r="A20" t="s">
         <v>17</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
@@ -1177,6 +1183,12 @@
       <c r="A22" t="s">
         <v>12</v>
       </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
@@ -1194,6 +1206,12 @@
       <c r="A23" t="s">
         <v>19</v>
       </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
       <c r="E23" t="s">
         <v>20</v>
       </c>
@@ -1211,6 +1229,12 @@
       <c r="A24" t="s">
         <v>13</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
       <c r="E24" t="s">
         <v>22</v>
       </c>
@@ -1228,6 +1252,12 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
       <c r="E25" t="s">
         <v>16</v>
       </c>
@@ -1244,6 +1274,12 @@
     <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>27</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -1327,6 +1327,12 @@
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
@@ -1344,6 +1350,12 @@
       <c r="A30" t="s">
         <v>11</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
       <c r="E30" t="s">
         <v>16</v>
       </c>
@@ -1412,6 +1424,12 @@
       <c r="A34" t="s">
         <v>12</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="E34" t="s">
         <v>15</v>
       </c>
@@ -1428,6 +1446,12 @@
     <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>22</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -1166,6 +1166,12 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
       <c r="E21" t="s">
         <v>21</v>
       </c>
@@ -1373,6 +1379,12 @@
       <c r="A31" t="s">
         <v>20</v>
       </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
       <c r="E31" t="s">
         <v>13</v>
       </c>
@@ -1407,6 +1419,12 @@
       <c r="A33" t="s">
         <v>21</v>
       </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
       <c r="E33" t="s">
         <v>19</v>
       </c>
@@ -1499,6 +1517,12 @@
       <c r="A38" t="s">
         <v>27</v>
       </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
       <c r="E38" t="s">
         <v>15</v>
       </c>
@@ -1533,6 +1557,12 @@
       <c r="A40" t="s">
         <v>24</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
       <c r="E40" t="s">
         <v>20</v>
       </c>
@@ -1550,6 +1580,12 @@
       <c r="A41" t="s">
         <v>11</v>
       </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
       <c r="E41" t="s">
         <v>25</v>
       </c>
@@ -1567,6 +1603,12 @@
       <c r="A42" t="s">
         <v>19</v>
       </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
@@ -1584,6 +1626,12 @@
       <c r="A43" t="s">
         <v>13</v>
       </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
       <c r="E43" t="s">
         <v>12</v>
       </c>
@@ -1600,6 +1648,12 @@
     <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>22</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
       </c>
       <c r="E44" t="s">
         <v>21</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -1402,6 +1402,12 @@
       <c r="A32" t="s">
         <v>24</v>
       </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
       <c r="E32" t="s">
         <v>25</v>
       </c>
@@ -1701,6 +1707,12 @@
       <c r="A47" t="s">
         <v>25</v>
       </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
       <c r="E47" t="s">
         <v>17</v>
       </c>
@@ -1718,6 +1730,12 @@
       <c r="A48" t="s">
         <v>13</v>
       </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
       <c r="E48" t="s">
         <v>15</v>
       </c>
@@ -1735,6 +1753,12 @@
       <c r="A49" t="s">
         <v>21</v>
       </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
       <c r="E49" t="s">
         <v>27</v>
       </c>
@@ -1769,6 +1793,12 @@
       <c r="A51" t="s">
         <v>22</v>
       </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
       <c r="E51" t="s">
         <v>19</v>
       </c>
@@ -1786,6 +1816,12 @@
       <c r="A52" t="s">
         <v>20</v>
       </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
@@ -1803,6 +1839,12 @@
       <c r="A53" t="s">
         <v>12</v>
       </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
       <c r="E53" t="s">
         <v>24</v>
       </c>
@@ -2217,6 +2259,12 @@
     <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>22</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
       </c>
       <c r="E78" t="s">
         <v>25</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -1776,6 +1776,12 @@
       <c r="A50" t="s">
         <v>14</v>
       </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
       <c r="E50" t="s">
         <v>16</v>
       </c>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -1897,6 +1897,12 @@
       <c r="A56" t="s">
         <v>15</v>
       </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
@@ -1931,6 +1937,12 @@
       <c r="A58" t="s">
         <v>15</v>
       </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
       <c r="E58" t="s">
         <v>21</v>
       </c>
@@ -1948,6 +1960,12 @@
       <c r="A59" t="s">
         <v>19</v>
       </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
       <c r="E59" t="s">
         <v>27</v>
       </c>
@@ -1965,6 +1983,12 @@
       <c r="A60" t="s">
         <v>11</v>
       </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
       <c r="E60" t="s">
         <v>22</v>
       </c>
@@ -1982,6 +2006,12 @@
       <c r="A61" t="s">
         <v>25</v>
       </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
       <c r="E61" t="s">
         <v>20</v>
       </c>
@@ -1999,6 +2029,12 @@
       <c r="A62" t="s">
         <v>13</v>
       </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
       <c r="E62" t="s">
         <v>24</v>
       </c>
@@ -2015,6 +2051,12 @@
     <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>16</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -1920,6 +1920,12 @@
       <c r="A57" t="s">
         <v>14</v>
       </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
       <c r="E57" t="s">
         <v>17</v>
       </c>
@@ -2104,6 +2110,12 @@
       <c r="A66" t="s">
         <v>17</v>
       </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
       <c r="E66" t="s">
         <v>13</v>
       </c>
@@ -2137,6 +2149,12 @@
     <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>19</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
       </c>
       <c r="E68" t="s">
         <v>25</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -1546,6 +1546,12 @@
       <c r="A39" t="s">
         <v>17</v>
       </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
       <c r="E39" t="s">
         <v>16</v>
       </c>
@@ -2173,6 +2179,12 @@
       <c r="A69" t="s">
         <v>12</v>
       </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
       <c r="E69" t="s">
         <v>21</v>
       </c>
@@ -2190,6 +2202,12 @@
       <c r="A70" t="s">
         <v>24</v>
       </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
       <c r="E70" t="s">
         <v>22</v>
       </c>
@@ -2207,6 +2225,12 @@
       <c r="A71" t="s">
         <v>14</v>
       </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
       <c r="E71" t="s">
         <v>27</v>
       </c>
@@ -2224,6 +2248,12 @@
       <c r="A72" t="s">
         <v>12</v>
       </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
       <c r="E72" t="s">
         <v>17</v>
       </c>
@@ -2241,6 +2271,12 @@
       <c r="A73" t="s">
         <v>21</v>
       </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
       <c r="E73" t="s">
         <v>16</v>
       </c>
@@ -2258,6 +2294,12 @@
       <c r="A74" t="s">
         <v>20</v>
       </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
       <c r="E74" t="s">
         <v>15</v>
       </c>
@@ -2275,6 +2317,12 @@
       <c r="A75" t="s">
         <v>11</v>
       </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
       <c r="E75" t="s">
         <v>19</v>
       </c>
@@ -2292,6 +2340,12 @@
       <c r="A76" t="s">
         <v>14</v>
       </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
       <c r="E76" t="s">
         <v>24</v>
       </c>
@@ -2308,6 +2362,12 @@
     <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>27</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
       </c>
       <c r="E77" t="s">
         <v>13</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -2557,6 +2557,12 @@
       <c r="A88" t="s">
         <v>16</v>
       </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
       <c r="E88" t="s">
         <v>22</v>
       </c>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -2438,6 +2438,12 @@
       <c r="A81" t="s">
         <v>22</v>
       </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
       <c r="E81" t="s">
         <v>17</v>
       </c>
@@ -2472,6 +2478,12 @@
       <c r="A83" t="s">
         <v>20</v>
       </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
       <c r="E83" t="s">
         <v>14</v>
       </c>
@@ -2489,6 +2501,12 @@
       <c r="A84" t="s">
         <v>15</v>
       </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
       <c r="E84" t="s">
         <v>25</v>
       </c>
@@ -2506,6 +2524,12 @@
       <c r="A85" t="s">
         <v>11</v>
       </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
       <c r="E85" t="s">
         <v>12</v>
       </c>
@@ -2523,6 +2547,12 @@
       <c r="A86" t="s">
         <v>27</v>
       </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
       <c r="E86" t="s">
         <v>24</v>
       </c>
@@ -2540,6 +2570,12 @@
       <c r="A87" t="s">
         <v>19</v>
       </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
       <c r="E87" t="s">
         <v>13</v>
       </c>
@@ -2579,6 +2615,12 @@
     <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>17</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
       </c>
       <c r="E89" t="s">
         <v>21</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -2461,6 +2461,12 @@
       <c r="A82" t="s">
         <v>16</v>
       </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
       <c r="E82" t="s">
         <v>19</v>
       </c>
@@ -2668,6 +2674,12 @@
       <c r="A92" t="s">
         <v>21</v>
       </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
       <c r="E92" t="s">
         <v>20</v>
       </c>
@@ -2736,6 +2748,12 @@
       <c r="A96" t="s">
         <v>24</v>
       </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
       <c r="E96" t="s">
         <v>15</v>
       </c>
@@ -2753,6 +2771,12 @@
       <c r="A97" t="s">
         <v>25</v>
       </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
@@ -2770,6 +2794,12 @@
       <c r="A98" t="s">
         <v>22</v>
       </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
       <c r="E98" t="s">
         <v>20</v>
       </c>
@@ -2787,6 +2817,12 @@
       <c r="A99" t="s">
         <v>17</v>
       </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
       <c r="E99" t="s">
         <v>15</v>
       </c>
@@ -2804,6 +2840,12 @@
       <c r="A100" t="s">
         <v>12</v>
       </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
       <c r="E100" t="s">
         <v>27</v>
       </c>
@@ -2821,6 +2863,12 @@
       <c r="A101" t="s">
         <v>21</v>
       </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
@@ -2838,6 +2886,12 @@
       <c r="A102" t="s">
         <v>24</v>
       </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
       <c r="E102" t="s">
         <v>19</v>
       </c>
@@ -2854,6 +2908,12 @@
     <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>16</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>13</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -2714,6 +2714,12 @@
       <c r="A94" t="s">
         <v>25</v>
       </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
       <c r="E94" t="s">
         <v>12</v>
       </c>
@@ -3011,6 +3017,12 @@
     <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>15</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
       </c>
       <c r="E109" t="s">
         <v>19</v>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -4188,9 +4188,13 @@
           <t>Petroleum FK</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="n">
+        <v>3</v>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>Salt IF</t>
@@ -4316,9 +4320,13 @@
           <t>FK Steindølene 1</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>Omega Løkka</t>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -4220,15 +4220,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
+          <t>Tihlde Pythons</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
           <t>MiT Fotball</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Tihlde Pythons</t>
         </is>
       </c>
       <c r="F107" s="2" t="n">

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -3749,9 +3749,13 @@
           <t>Salt IF</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>FK Steindølene 1</t>

--- a/Scripts/Kamper/H23/Avd A.xlsx
+++ b/Scripts/Kamper/H23/Avd A.xlsx
@@ -2859,9 +2859,13 @@
           <t>NTNUI Samba</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>5</v>
+      </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>Petroleum FK</t>
@@ -3408,11 +3412,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3819,9 +3823,13 @@
           <t>Omega Løkka</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>1</v>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>HSK</t>
@@ -4262,9 +4270,13 @@
           <t>HSK</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
       <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="n">
+        <v>3</v>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>Wolves of Ballstreet</t>
@@ -4363,9 +4375,13 @@
           <t>Hybrida FK</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>NTNUI Samba</t>
@@ -4394,9 +4410,13 @@
           <t>Datakameratene FK</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>Knekken</t>
